--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_20-14.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_20-14.xlsx
@@ -77,6 +77,9 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>CLARY HAIR MASK</t>
   </si>
   <si>
+    <t>CLINDAVAL 2% VAGINAL CREAM 20 GM</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -246,6 +252,9 @@
   </si>
   <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
   </si>
   <si>
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
@@ -1250,13 +1259,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -1268,7 +1277,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1276,13 +1285,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>360</v>
+        <v>31</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1302,17 +1311,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1328,13 +1337,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1346,7 +1355,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1354,17 +1363,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1372,7 +1381,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1380,17 +1389,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1398,7 +1407,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1406,13 +1415,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1432,17 +1441,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>82.5</v>
+        <v>36</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1450,7 +1459,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1458,13 +1467,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1476,7 +1485,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1484,17 +1493,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>24</v>
+        <v>82.5</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1502,7 +1511,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1510,17 +1519,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1528,7 +1537,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1536,17 +1545,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1554,7 +1563,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1562,13 +1571,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1580,7 +1589,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1588,17 +1597,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1606,7 +1615,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1614,17 +1623,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1632,7 +1641,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1640,17 +1649,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1672,7 +1681,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1692,13 +1701,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1718,17 +1727,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1736,7 +1745,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1744,13 +1753,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1762,7 +1771,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1770,7 +1779,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -1780,7 +1789,7 @@
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1788,7 +1797,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1802,7 +1811,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1814,7 +1823,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1822,17 +1831,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1848,13 +1857,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1866,7 +1875,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1874,17 +1883,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1892,7 +1901,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1900,17 +1909,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>71.5</v>
+        <v>24</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1918,7 +1927,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1926,17 +1935,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1952,17 +1961,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>78</v>
+        <v>71.5</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1978,17 +1987,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2004,17 +2013,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2030,17 +2039,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2056,13 +2065,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2082,17 +2091,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2108,17 +2117,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2126,7 +2135,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2134,13 +2143,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2152,7 +2161,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2160,17 +2169,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2186,17 +2195,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>-72.5</v>
+        <v>38</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2218,7 +2227,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2238,17 +2247,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>36.5</v>
+        <v>-72.5</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2264,13 +2273,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>57</v>
+        <v>350</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2290,13 +2299,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2316,17 +2325,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2342,17 +2351,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2368,17 +2377,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2394,13 +2403,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2412,7 +2421,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2420,17 +2429,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2438,7 +2447,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2446,13 +2455,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>-135</v>
+        <v>31</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2464,7 +2473,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2472,17 +2481,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2490,7 +2499,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2498,17 +2507,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2516,7 +2525,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2524,17 +2533,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>8</v>
+        <v>-135</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2542,7 +2551,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2550,17 +2559,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2576,7 +2585,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -2586,7 +2595,7 @@
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2602,13 +2611,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2628,17 +2637,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2660,11 +2669,11 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2680,17 +2689,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2706,17 +2715,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2732,17 +2741,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>28.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2750,7 +2759,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2758,17 +2767,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2776,7 +2785,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2784,13 +2793,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2802,7 +2811,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2810,17 +2819,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>59</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2836,17 +2845,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2862,17 +2871,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2888,13 +2897,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2914,17 +2923,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2940,13 +2949,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2972,11 +2981,11 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2992,17 +3001,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3010,7 +3019,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3018,17 +3027,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3036,7 +3045,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3044,17 +3053,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3062,7 +3071,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3070,17 +3079,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3088,7 +3097,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3096,17 +3105,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3122,17 +3131,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3140,7 +3149,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3148,13 +3157,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3166,7 +3175,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3174,13 +3183,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3192,7 +3201,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3200,13 +3209,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3218,7 +3227,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3226,13 +3235,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3244,7 +3253,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3252,17 +3261,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>11.67</v>
+        <v>25</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3270,7 +3279,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3278,13 +3287,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3296,7 +3305,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3304,17 +3313,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3322,7 +3331,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3330,17 +3339,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>24</v>
+        <v>11.67</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3348,7 +3357,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3356,13 +3365,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3374,7 +3383,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3382,17 +3391,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3400,7 +3409,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3408,17 +3417,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>133.65000000000001</v>
+        <v>24</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>40</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3426,7 +3435,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3434,17 +3443,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3460,13 +3469,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3486,17 +3495,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>15</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3512,13 +3521,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3538,13 +3547,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3564,13 +3573,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3590,17 +3599,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3616,13 +3625,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3642,17 +3651,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3668,17 +3677,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3694,51 +3703,129 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="107" ht="26.25" customHeight="1">
-      <c r="K107" s="10">
-        <v>4927.5200000000004</v>
-      </c>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="11">
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="6">
+        <v>104</v>
+      </c>
+      <c t="s" r="B107" s="7">
+        <v>146</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c t="s" r="H107" s="8">
+        <v>55</v>
+      </c>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="9">
+        <v>40</v>
+      </c>
+      <c r="M107" s="9"/>
+      <c t="s" r="N107" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" ht="25.5" customHeight="1">
+      <c r="A108" s="6">
+        <v>105</v>
+      </c>
+      <c t="s" r="B108" s="7">
         <v>147</v>
       </c>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c t="s" r="F108" s="12">
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c t="s" r="H108" s="8">
+        <v>42</v>
+      </c>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="9">
+        <v>80</v>
+      </c>
+      <c r="M108" s="9"/>
+      <c t="s" r="N108" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" ht="24.75" customHeight="1">
+      <c r="A109" s="6">
+        <v>106</v>
+      </c>
+      <c t="s" r="B109" s="7">
         <v>148</v>
       </c>
-      <c r="G108" s="12"/>
-      <c r="H108" s="13"/>
-      <c t="s" r="I108" s="14">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c t="s" r="H109" s="8">
         <v>149</v>
       </c>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="9">
+        <v>20</v>
+      </c>
+      <c r="M109" s="9"/>
+      <c t="s" r="N109" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" ht="26.25" customHeight="1">
+      <c r="K110" s="10">
+        <v>5061.5200000000004</v>
+      </c>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="11">
+        <v>150</v>
+      </c>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c t="s" r="F111" s="12">
+        <v>151</v>
+      </c>
+      <c r="G111" s="12"/>
+      <c r="H111" s="13"/>
+      <c t="s" r="I111" s="14">
+        <v>152</v>
+      </c>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="320">
+  <mergeCells count="329">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4055,10 +4142,19 @@
     <mergeCell ref="B106:G106"/>
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
-    <mergeCell ref="K107:N107"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="I108:N108"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="K110:N110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="I111:N111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
